--- a/target/test-classes/Data/TestData.xlsx
+++ b/target/test-classes/Data/TestData.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C9806A12-6CFA-424B-A569-E04E8D948236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="22380" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Negative data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,12 +20,136 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+  <si>
+    <t>Practice name</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>Clinic name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>NPI number</t>
+  </si>
+  <si>
+    <t>Person name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIP code </t>
+  </si>
+  <si>
+    <t>#$$$$$$$$(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc2. private.limited </t>
+  </si>
+  <si>
+    <t>abc5623569</t>
+  </si>
+  <si>
+    <t>123456$###</t>
+  </si>
+  <si>
+    <t>aswini</t>
+  </si>
+  <si>
+    <t>nandhu@</t>
+  </si>
+  <si>
+    <t>$$@@@@</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aster  super specilaity government  hospital private limited </t>
+  </si>
+  <si>
+    <t>No:</t>
+  </si>
+  <si>
+    <t>abcdefghikk</t>
+  </si>
+  <si>
+    <t>234#$</t>
+  </si>
+  <si>
+    <t>asw234567788</t>
+  </si>
+  <si>
+    <t>asw#45</t>
+  </si>
+  <si>
+    <t>asw</t>
+  </si>
+  <si>
+    <t>uuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>#@</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>asw@@@@</t>
+  </si>
+  <si>
+    <t>care 365</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test  @ 123</t>
+  </si>
+  <si>
+    <t>Test@123Test@123456788</t>
+  </si>
+  <si>
+    <t>asw42356</t>
+  </si>
+  <si>
+    <t>test@14456698712365489999</t>
+  </si>
+  <si>
+    <t>asw%^^</t>
+  </si>
+  <si>
+    <t>$567898</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +172,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +462,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" customWidth="1"/>
+    <col min="7" max="7" width="39.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>4566852365</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>562345689</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>56423568899</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>123456789653</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1000000000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>56238965</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>568923566</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>56.236984999999997</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{C218427F-3D0D-4D96-AF94-4DD561423FEF}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{586326DF-D86D-4534-ABD8-61F89B41AD5E}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{73C44A1C-CC77-46C1-A473-AFC016BB0876}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{CCA51E72-F680-41DE-9B94-34984AE23CFB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>